--- a/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_self_hint.xlsx
+++ b/experimentos/parte_1_experimentos/final/resultados_ollama_gemma2_9b_self_hint.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The incident involves multiple failed login attempts from the IP address [IP_ADDRESS_32a64212fc] to various user accounts on a server.  These attempts, using invalid usernames and failing password authentication, strongly indicate an attempt to gain unauthorized access.  The use of the SSH protocol further supports this classification as a deliberate intrusion attempt. The fact that Fail2Ban generated the original email suggests this IP address is already flagged for malicious activity due to repeated failed logins.</t>
+          <t>The incident report details multiple failed login attempts from a specific IP address ([IP_ADDRESS_32a64212fc]) targeting various user accounts, including the root account. These repeated attempts using invalid usernames and passwords strongly suggest an intrusion attempt where the attacker is actively trying to gain unauthorized access to the system. While there's no evidence of successful compromise at this point, the pattern of failed logins indicates malicious activity.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The incident description details multiple failed SSH authentication attempts from a single IP address ([IP_ADDRESS_b29a075d57]). These attempts used various usernames and resulted in "authentication failure" messages.  The log entries indicate these were likely brute-force attacks where the attacker was trying different usernames and passwords to gain unauthorized access to the SSH server.</t>
+          <t>The log entries reveal multiple failed SSH login attempts from a single IP address using various usernames and failing authentication.  The "preauth disconnect" messages indicate the connection was terminated before successful authentication, suggesting a brute-force attack pattern. There's no evidence of successful access, classifying this as an attempted intrusion.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -688,7 +688,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The provided information strongly suggests an intrusion attempt.  Here's why:</t>
+          <t>The provided logs clearly demonstrate multiple failed attempts to send emails from the IP address [IP_ADDRESS_984299dc8f]. This, coupled with the automated response from Fail2Ban, strongly suggests a potential brute-force attack or scanning activity targeting email servers. While the recipient server rejected the emails, preventing a successful breach at this stage, the suspicious behavior itself warrants classification as an intrusion attempt.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -767,14 +767,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident involves repeated failed login attempts to an SSH server from a single IP address ([IP_ADDRESS_b29a075d57]).  Key indicators point towards an intrusion attempt:</t>
+          <t>The incident description details multiple failed SSH login attempts from a single IP address using various usernames.  The log entries clearly indicate "invalid user" and "authentication failure," suggesting a brute-force attack where the attacker is trying different credentials to gain unauthorized access. While these attempts were unsuccessful, they represent a security risk as the attacker may persist with different tactics or target other systems.</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -855,7 +855,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The email explicitly states that one or more computers have been potentially infected with the SystemBC malware.  The email provides details about the malware's functionality (backdoor, ransomware association) and includes timestamps and IP addresses suggesting malicious activity. This strongly points to a malware infection as the primary issue.</t>
+          <t>The incident description clearly indicates the presence of malware (SystemBC) on one or more computers within the victim's network.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a potential malware infection.  The email explicitly states that one or more computers in the target network have been "possibly infected with the malware SystemBC." It further describes SystemBC's functionalities as a backdoor and its association with ransomware attacks, highlighting the risk of data compromise and system instability.</t>
+          <t>The incident involves a confirmed or suspected infection with the SystemBC malware. This malware is described as a backdoor used for lateral movement and associated with ransomware attacks.  The email details observed malicious activity, potential compromised accounts, and recommends actions to mitigate the threat, all strongly indicating a malware infection.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The incident description details a potential intrusion attempt based on log lines showing connection attempts and rejections from an IP address flagged as suspicious by an automated system. While the logs suggest possible malicious activity, there's no confirmation of successful exploitation or data compromise.  The email chain focuses on reporting and forwarding the issue for further investigation, making it an unconfirmed intrusion attempt.</t>
+          <t>The incident description details a potential abuse situation originating from an IP address. While log lines indicate connection attempts and rejections by the recipient's mail server, there is no concrete evidence of successful exploitation or data compromise. The email requesting further investigation highlights the uncertainty surrounding the nature and severity of the potential threat. This aligns with CAT12 - Intrusion Attempt as it describes suspicious activity without confirmation of a full-blown attack.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The provided information suggests potential suspicious activity but lacks concrete evidence of a successful intrusion.  The log lines indicate connection attempts and rejections, which could be indicative of scanning or probing. However, without further details about the nature of these attempts and their outcomes, it's impossible to definitively classify this as anything more than a potential intrusion attempt (CAT12). The forwarding of the email to the appropriate contact for investigation further supports this categorization.</t>
+          <t>The incident description points to a series of blocked attempts to send emails through the recipient's mail server. Log lines indicate "filter triggered" and "reject" messages, suggesting automated security measures successfully identified and stopped suspicious activity. While the initial report mentions potential abuse, there's no concrete evidence of successful data breaches or malicious actions. This aligns with a CAT12 classification as it involves an unconfirmed attack against a system (email server).</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1167,19 +1167,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CAT1</t>
+          <t>CAT12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The incident involves a brute force attack against SSH, indicating an attempt to compromise user accounts. The email states the machine is suspected of being compromised and used for malicious activities or unauthorized actions by a legitimate user, confirming account compromise.</t>
+          <t>The email describes suspicious activity on a machine, specifically mentioning an SSH brute force attack. While the logs show potential attempts to gain unauthorized access, the CERT.br hasn't confirmed successful compromise. This indicates an intrusion attempt rather than a confirmed security breach.</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident involves an IP address ([IP_ADDRESS_43f72b8354]) being used to launch a DDoS attack against a target.  The description highlights the following key indicators:</t>
+          <t>The description clearly indicates a DDoS attack.  The compromised host was used to generate a significant volume of traffic (~183 Mbps) that overwhelmed the target network, causing packet loss and requiring emergency mitigation measures. This aligns perfectly with the definition of a Denial of Service attack.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident description clearly describes a Distributed Denial of Service (DDoS) attack.  Here's why:</t>
+          <t>The incident description clearly describes a Distributed Denial of Service (DDoS) attack.  A compromised host ([IP_ADDRESS_43f72b8354]) was used to send a significant amount of traffic (~92.0 Mbps) as part of a larger botnet attacking a target system. This resulted in "significant packet loss for our clients due to external link saturation" and required an "emergency null-route operation" to mitigate the attack. All these elements point to a deliberate attempt to disrupt the availability of a system through overwhelming it with traffic, which is the hallmark of a DDoS attack.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The description clearly outlines a DDoS attack. The use of terms like "compromised host," "attacking one of our customers as part of a coordinated DDoS botnet," "Nx10Gbps in size," "significant packet loss," and "emergency null-route operation" all point to a denial-of-service scenario where the target's network is overwhelmed with traffic.</t>
+          <t>The incident description clearly describes a DDoS attack.  The email states that an IP address under the recipient's control was used to launch an attack against one of their customers, generating significant traffic (~129 Mbps) and causing packet loss due to external link saturation. This is consistent with a denial-of-service attack where multiple compromised devices (a botnet) are used to overwhelm a target system.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The email clearly describes a potential vulnerability in Zimbra Collaboration Suite (CVE-2022-37042) that could allow attackers to execute arbitrary code, upload files, and gain unauthorized access. This aligns perfectly with the definition of CAT5: exploiting technical flaws for attacks.</t>
+          <t>The email clearly states that servers are potentially vulnerable to exploitation due to an outdated version of Zimbra Collaboration Suite. This vulnerability (CVE-2022-37042) allows attackers to perform malicious actions like uploading files, executing code, and gaining unauthorized access.  The incident focuses on the potential for exploitation rather than confirmed compromise or any other category.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAT5</t>
+          <t>CAT12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The incident describes BGP services being exposed to the internet without proper security controls (ACLs). This open configuration creates a vulnerability that attackers could exploit for various attacks like DoS or BGP hijacking.  The root cause is a technical flaw in the network configuration, making this a classic example of Vulnerability Exploitation.</t>
+          <t>The incident describes an open BGP service on several IP addresses belonging to the recipient organization. While this could be a misconfiguration, it also presents a vulnerability that attackers could exploit for denial-of-service attacks or routing traffic hijacking.  The CERT.br notification serves as an indicator of potential intrusion attempts due to the exposed service and the explicit warning about associated risks.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The provided information strongly suggests an intrusion attempt. Here's why:</t>
+          <t>Blocked Connections: The logs explicitly state that connections from the IP address were blocked, indicating an attempt to gain unauthorized access was detected and thwarted.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The email from CERT.br warns about servers with the SSDP/UPnP service enabled, which can be exploited for DDoS attacks.  An attacker could send forged requests to these servers, triggering large responses that overwhelm the target system, causing a Denial of Service. This directly aligns with the definition of a Denial of Service Attack in the NIST categories.</t>
+          <t>The notification clearly describes a vulnerability that can be exploited to launch DDoS attacks. The open SSDP port allows attackers to send amplified requests, overwhelming the target server and making it unavailable. This aligns perfectly with the definition of a Denial of Service attack in the NIST categories.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vulnerable Systems: The email identifies misconfigured NTP servers that are susceptible to amplification attacks.</t>
+          <t>The email clearly describes vulnerable NTP servers that can be exploited to launch DDoS attacks. These misconfigured servers could be overwhelmed with amplified requests, making them unavailable and potentially disrupting services for others. This aligns perfectly with the definition of a Denial of Service attack in the NIST categories.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident description clearly points to a phishing attack.</t>
+          <t>The incident description clearly points to a phishing attempt.  The email uses deceptive tactics like impersonating a legitimate organization, employing a suspicious sender address, and requesting action from the recipient to gain their trust and potentially steal information. This aligns perfectly with the definition of social engineering.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The primary attack vector in this scenario is the use of fraudulent emails designed to deceive users into providing sensitive information or making payments. This aligns with the definition of social engineering, which relies on manipulation and deception rather than direct technical exploitation.  The phishing element further strengthens this classification.</t>
+          <t>The incident description clearly demonstrates social engineering tactics.  The email impersonates a trusted cybersecurity firm (Netcraft) to deceive the recipient into believing it's a legitimate warning about fraudulent activity on their network. This creates a sense of urgency and fear, making the recipient more likely to click on the malicious link provided in the email.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The incident report explicitly states that the website content has been "altered" or "desfiguracao de website" (website defacing in Portuguese). This indicates unauthorized access and deliberate changes to the website's data, aligning perfectly with the definition of Unauthorized Modification.</t>
+          <t>The email explicitly states that the website content has been "altered" and "Desfiguracao de website" (Website Defacement) is mentioned. This clearly indicates an unauthorized modification of data on the web server, aligning perfectly with the definition of CAT9: Unauthorized Modification.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -2116,19 +2116,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>CAT9</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>The incident description clearly states that the website content has been "altered" or "desfiguracao de website" in Portuguese, indicating unauthorized changes to the website's data. This directly falls under the definition of Unauthorized Modification (CAT9).</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The incident description explicitly states that the website content was altered ("Chegou ao nosso conhecimento que o website abaixo teve o seu conteudo alterado."). This directly points to an unauthorized modification of data, fitting squarely within Category 9.</t>
+          <t>The incident description clearly states that the website content was altered ("o website abaixo teve o seu conteudo alterado"). This indicates an unauthorized modification of data on a publicly accessible system.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The email explicitly states that the website content has been altered ("Desfiguracao de website" translates to "Website Defacement").  This, along with the provided screenshot of changed text, clearly indicates an unauthorized modification of the website's data.</t>
+          <t>The incident description clearly states that the website content has been "altered" and "desfiguracao de website" (website defacing) is mentioned in the subject line. This indicates that someone gained unauthorized access to the website and made improper changes to its content, which is the definition of Unauthorized Modification according to the NIST categories.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates unauthorized modification of a website. The attackers altered the website's content, replacing it with a defaced page containing their message and offensive language. This directly falls under the definition of CAT9: Unauthorized Modification – improper changes to systems or data.</t>
+          <t>The incident description clearly indicates that the website content was altered without authorization. The email provides details about the defaced content, including a message with offensive language and signatures from alleged attackers. This directly points to unauthorized modification of the website's data and presentation.</t>
         </is>
       </c>
       <c r="E25" t="n">
